--- a/data/trans_orig/P36BPD13_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD13_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>306361</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>298400</v>
+        <v>298040</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>311512</v>
+        <v>311648</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9645896798454903</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9395224137784177</v>
+        <v>0.9383887855945144</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9808061784846419</v>
+        <v>0.9812358035516197</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>529</v>
@@ -762,19 +762,19 @@
         <v>310833</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>306747</v>
+        <v>306100</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>313642</v>
+        <v>313559</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9834589899437766</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9705294424668746</v>
+        <v>0.9684828667959136</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9923464880403094</v>
+        <v>0.9920846283522118</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>847</v>
@@ -783,19 +783,19 @@
         <v>617194</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>608210</v>
+        <v>608063</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>623529</v>
+        <v>622773</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9740012934672433</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9598225325739471</v>
+        <v>0.9595901819398859</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9839985825530509</v>
+        <v>0.9828054654576425</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>11247</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6096</v>
+        <v>5960</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19208</v>
+        <v>19568</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03541032015450964</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01919382151535802</v>
+        <v>0.01876419644838039</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06047758622158219</v>
+        <v>0.0616112144054873</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -833,19 +833,19 @@
         <v>5228</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2419</v>
+        <v>2502</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9314</v>
+        <v>9961</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01654101005622342</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.007653511959690552</v>
+        <v>0.007915371647788431</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02947055753312527</v>
+        <v>0.03151713320408773</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>21</v>
@@ -854,19 +854,19 @@
         <v>16475</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10140</v>
+        <v>10896</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25459</v>
+        <v>25606</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02599870653275684</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01600141744694926</v>
+        <v>0.01719453454235738</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04017746742605299</v>
+        <v>0.04040981806011382</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>325268</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>297828</v>
+        <v>295396</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>353850</v>
+        <v>351069</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6144539753588948</v>
+        <v>0.6144539753588946</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.562618137679922</v>
+        <v>0.5580233590040544</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6684478649733345</v>
+        <v>0.6631946048101057</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>539</v>
@@ -979,19 +979,19 @@
         <v>410827</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>391362</v>
+        <v>392503</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>429255</v>
+        <v>428733</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7526900813576081</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7170280470503323</v>
+        <v>0.7191193344108747</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.786454229871582</v>
+        <v>0.7854978516371705</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>769</v>
@@ -1000,19 +1000,19 @@
         <v>736095</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>705237</v>
+        <v>700136</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>772429</v>
+        <v>765489</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6846295704807203</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6559292028242413</v>
+        <v>0.6511853152111058</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7184231992156479</v>
+        <v>0.7119684178804602</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>204093</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>175511</v>
+        <v>178292</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>231533</v>
+        <v>233965</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3855460246411054</v>
+        <v>0.3855460246411053</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3315521350266652</v>
+        <v>0.3368053951898945</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4373818623200779</v>
+        <v>0.4419766409959457</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>177</v>
@@ -1050,19 +1050,19 @@
         <v>134984</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>116556</v>
+        <v>117078</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>154449</v>
+        <v>153308</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.247309918642392</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.213545770128418</v>
+        <v>0.2145021483628293</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2829719529496677</v>
+        <v>0.2808806655891251</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>328</v>
@@ -1071,19 +1071,19 @@
         <v>339077</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>302743</v>
+        <v>309683</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>369935</v>
+        <v>375036</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3153704295192799</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2815768007843521</v>
+        <v>0.2880315821195398</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3440707971757588</v>
+        <v>0.3488146847888941</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>262457</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>248820</v>
+        <v>248656</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>273551</v>
+        <v>273286</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8521045834128836</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8078324270279752</v>
+        <v>0.807297216064375</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8881236155059458</v>
+        <v>0.8872622001682285</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>477</v>
@@ -1196,19 +1196,19 @@
         <v>316504</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>306975</v>
+        <v>306908</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>325378</v>
+        <v>323551</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9106144951212032</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8831978032424606</v>
+        <v>0.8830066177567047</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9361448608511936</v>
+        <v>0.9308900072475433</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>778</v>
@@ -1217,19 +1217,19 @@
         <v>578961</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>562613</v>
+        <v>562429</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>593999</v>
+        <v>593587</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8831249502844235</v>
+        <v>0.8831249502844238</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8581893062782533</v>
+        <v>0.8579076073042872</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9060640239713976</v>
+        <v>0.9054358454610035</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>45553</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>34459</v>
+        <v>34724</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>59190</v>
+        <v>59354</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1478954165871163</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1118763844940537</v>
+        <v>0.1127377998317714</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1921675729720242</v>
+        <v>0.1927027839356251</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>46</v>
@@ -1267,19 +1267,19 @@
         <v>31068</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22194</v>
+        <v>24021</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40597</v>
+        <v>40664</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.08938550487879691</v>
+        <v>0.08938550487879694</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06385513914880635</v>
+        <v>0.06910999275245652</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1168021967575388</v>
+        <v>0.1169933822432954</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>95</v>
@@ -1288,19 +1288,19 @@
         <v>76621</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>61583</v>
+        <v>61995</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>92969</v>
+        <v>93153</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1168750497155763</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09393597602860257</v>
+        <v>0.09456415453899622</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1418106937217471</v>
+        <v>0.1420923926957126</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>331623</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>313480</v>
+        <v>313342</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>343990</v>
+        <v>345632</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8950448901364167</v>
+        <v>0.8950448901364169</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8460773650752892</v>
+        <v>0.8457043290190935</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9284223361413995</v>
+        <v>0.9328549737383482</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>553</v>
@@ -1413,19 +1413,19 @@
         <v>392894</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>384280</v>
+        <v>384412</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>400444</v>
+        <v>400499</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.938908651535587</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9183248938498305</v>
+        <v>0.9186401369188785</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9569510142244929</v>
+        <v>0.9570829813766607</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>813</v>
@@ -1434,19 +1434,19 @@
         <v>724516</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>704513</v>
+        <v>704870</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>740001</v>
+        <v>739009</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9183096332539856</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.892956378617817</v>
+        <v>0.8934082483600946</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9379365790115746</v>
+        <v>0.936679297777806</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>38887</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>26520</v>
+        <v>24878</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>57030</v>
+        <v>57168</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1049551098635832</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07157766385860054</v>
+        <v>0.06714502626165177</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1539226349247107</v>
+        <v>0.1542956709809059</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>41</v>
@@ -1484,19 +1484,19 @@
         <v>25564</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18014</v>
+        <v>17959</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>34178</v>
+        <v>34046</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.061091348464413</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0430489857755071</v>
+        <v>0.04291701862333923</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08167510615017061</v>
+        <v>0.08135986308112157</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>71</v>
@@ -1505,19 +1505,19 @@
         <v>64451</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>48966</v>
+        <v>49958</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>84454</v>
+        <v>84097</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08169036674601432</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06206342098842552</v>
+        <v>0.06332070222219402</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.107043621382183</v>
+        <v>0.1065917516399063</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>200292</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>195356</v>
+        <v>195339</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>202918</v>
+        <v>203203</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9773474152451129</v>
+        <v>0.977347415245113</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9532615058622194</v>
+        <v>0.9531797676155589</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9901603861201952</v>
+        <v>0.9915522290640069</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>468</v>
@@ -1630,19 +1630,19 @@
         <v>215926</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>210723</v>
+        <v>210331</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>219588</v>
+        <v>219500</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9552412718603296</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9322237250943997</v>
+        <v>0.9304912728043166</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9714451383118567</v>
+        <v>0.9710521625723533</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>740</v>
@@ -1651,19 +1651,19 @@
         <v>416217</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>409403</v>
+        <v>409265</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>421453</v>
+        <v>421107</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9657529588619033</v>
+        <v>0.965752958861903</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.949940929891678</v>
+        <v>0.9496208713360332</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9779022023274185</v>
+        <v>0.9770981854007305</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>4642</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2016</v>
+        <v>1731</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9578</v>
+        <v>9595</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.02265258475488706</v>
+        <v>0.02265258475488705</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009839613879805453</v>
+        <v>0.008447770935993288</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04673849413778123</v>
+        <v>0.04682023238444155</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -1701,19 +1701,19 @@
         <v>10117</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6455</v>
+        <v>6543</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15320</v>
+        <v>15712</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04475872813967045</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0285548616881432</v>
+        <v>0.02894783742764684</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06777627490560036</v>
+        <v>0.06950872719568336</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -1722,19 +1722,19 @@
         <v>14760</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9524</v>
+        <v>9870</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21574</v>
+        <v>21712</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.03424704113809685</v>
+        <v>0.03424704113809684</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0220977976725815</v>
+        <v>0.02290181459926966</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05005907010832197</v>
+        <v>0.05037912866396672</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>250619</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>240962</v>
+        <v>241775</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>257164</v>
+        <v>257350</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.928578120349137</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8928002144690645</v>
+        <v>0.8958106077089754</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9528291954740871</v>
+        <v>0.9535205382189273</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>443</v>
@@ -1847,19 +1847,19 @@
         <v>254232</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>248017</v>
+        <v>248594</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>258227</v>
+        <v>258025</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.9639145729833408</v>
+        <v>0.9639145729833406</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9403487746442815</v>
+        <v>0.9425382871673111</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9790584772235352</v>
+        <v>0.9782939065946173</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>789</v>
@@ -1868,19 +1868,19 @@
         <v>504851</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>495035</v>
+        <v>494256</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>513415</v>
+        <v>512781</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.9460429214604865</v>
+        <v>0.9460429214604863</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9276486533052233</v>
+        <v>0.9261889588681317</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9620911625394605</v>
+        <v>0.960903654288024</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>19276</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12731</v>
+        <v>12545</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>28933</v>
+        <v>28120</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07142187965086295</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04717080452591305</v>
+        <v>0.04647946178107265</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1071997855309357</v>
+        <v>0.1041893922910246</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -1918,19 +1918,19 @@
         <v>9518</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5523</v>
+        <v>5725</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15733</v>
+        <v>15156</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03608542701665925</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02094152277646474</v>
+        <v>0.02170609340538253</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05965122535571857</v>
+        <v>0.05746171283268891</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>41</v>
@@ -1939,19 +1939,19 @@
         <v>28794</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>20230</v>
+        <v>20864</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>38610</v>
+        <v>39389</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05395707853951365</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03790883746053999</v>
+        <v>0.03909634571197602</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07235134669477708</v>
+        <v>0.07381104113186848</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>570928</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>545174</v>
+        <v>543071</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>595530</v>
+        <v>593058</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.798452429625966</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7624352542894711</v>
+        <v>0.7594945949288461</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8328596948481699</v>
+        <v>0.8294021162123567</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>765</v>
@@ -2064,19 +2064,19 @@
         <v>609092</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>587689</v>
+        <v>587147</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>630700</v>
+        <v>630389</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8039912407993768</v>
+        <v>0.803991240799377</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7757403113080089</v>
+        <v>0.77502472020659</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8325133031701104</v>
+        <v>0.8321029966986634</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1237</v>
@@ -2085,19 +2085,19 @@
         <v>1180020</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1144068</v>
+        <v>1144862</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1211312</v>
+        <v>1211193</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8013018394098345</v>
+        <v>0.8013018394098343</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.77688806877629</v>
+        <v>0.7774274960846964</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8225509905060815</v>
+        <v>0.8224700985712456</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>144115</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>119513</v>
+        <v>121985</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>169869</v>
+        <v>171972</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2015475703740339</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1671403051518299</v>
+        <v>0.1705978837876433</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2375647457105289</v>
+        <v>0.2405054050711539</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>181</v>
@@ -2135,19 +2135,19 @@
         <v>148493</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>126885</v>
+        <v>127196</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>169896</v>
+        <v>170438</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1960087592006231</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1674866968298896</v>
+        <v>0.1678970033013367</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2242596886919912</v>
+        <v>0.2249752797934099</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>303</v>
@@ -2156,19 +2156,19 @@
         <v>292609</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>261317</v>
+        <v>261436</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>328561</v>
+        <v>327767</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.1986981605901656</v>
+        <v>0.1986981605901655</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1774490094939183</v>
+        <v>0.1775299014287541</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.22311193122371</v>
+        <v>0.2225725039153035</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>720829</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>701975</v>
+        <v>701412</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>735683</v>
+        <v>735850</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.9053889722413352</v>
+        <v>0.9053889722413351</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8817071884546696</v>
+        <v>0.8809997954054244</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9240463528789621</v>
+        <v>0.9242554808557872</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>954</v>
@@ -2281,19 +2281,19 @@
         <v>741392</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>722903</v>
+        <v>721874</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>756968</v>
+        <v>757622</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.8934188983592447</v>
+        <v>0.893418898359245</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8711383588766592</v>
+        <v>0.8698989255274849</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9121883863063799</v>
+        <v>0.9129773402193849</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1640</v>
@@ -2302,19 +2302,19 @@
         <v>1462221</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1438098</v>
+        <v>1434126</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1483857</v>
+        <v>1483819</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.8992799549238524</v>
+        <v>0.8992799549238523</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8844443122010907</v>
+        <v>0.8820008983392307</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9125862918421489</v>
+        <v>0.9125630175360878</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>75325</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>60471</v>
+        <v>60304</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>94179</v>
+        <v>94742</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.09461102775866484</v>
+        <v>0.09461102775866483</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07595364712103805</v>
+        <v>0.0757445191442129</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1182928115453317</v>
+        <v>0.1190002045945758</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>106</v>
@@ -2352,19 +2352,19 @@
         <v>88445</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>72869</v>
+        <v>72215</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>106934</v>
+        <v>107963</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1065811016407551</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08781161369362006</v>
+        <v>0.08702265978061512</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1288616411233405</v>
+        <v>0.1301010744725156</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>180</v>
@@ -2373,19 +2373,19 @@
         <v>163770</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>142134</v>
+        <v>142172</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>187893</v>
+        <v>191865</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1007200450761477</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08741370815785095</v>
+        <v>0.08743698246391202</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1155556877989087</v>
+        <v>0.1179991016607693</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>2968376</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2914113</v>
+        <v>2922556</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3009598</v>
+        <v>3015594</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.845326425780371</v>
+        <v>0.8453264257803711</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.829873321678135</v>
+        <v>0.8322776823095459</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8570653298676769</v>
+        <v>0.8587730435523189</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4728</v>
@@ -2498,19 +2498,19 @@
         <v>3251699</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3215438</v>
+        <v>3212284</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3288380</v>
+        <v>3284465</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8776239074018507</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8678371637941322</v>
+        <v>0.8669858608423148</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8875238759770414</v>
+        <v>0.8864671590060592</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7613</v>
@@ -2519,19 +2519,19 @@
         <v>6220076</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6155744</v>
+        <v>6159507</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6280949</v>
+        <v>6279457</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.8619083928919502</v>
+        <v>0.8619083928919503</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8529940363236866</v>
+        <v>0.8535154489204244</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8703435441922889</v>
+        <v>0.8701367789118254</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>543139</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>501917</v>
+        <v>495921</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>597402</v>
+        <v>588959</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1546735742196289</v>
+        <v>0.154673574219629</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1429346701323231</v>
+        <v>0.1412269564476809</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1701266783218651</v>
+        <v>0.1677223176904542</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>598</v>
@@ -2569,19 +2569,19 @@
         <v>453418</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>416737</v>
+        <v>420652</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>489679</v>
+        <v>492833</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.1223760925981493</v>
+        <v>0.1223760925981494</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1124761240229586</v>
+        <v>0.1135328409939409</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1321628362058677</v>
+        <v>0.1330141391576853</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1066</v>
@@ -2590,19 +2590,19 @@
         <v>996556</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>935683</v>
+        <v>937175</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1060888</v>
+        <v>1057125</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.1380916071080496</v>
+        <v>0.1380916071080497</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1296564558077111</v>
+        <v>0.1298632210881745</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1470059636763136</v>
+        <v>0.1464845510795754</v>
       </c>
     </row>
     <row r="30">
